--- a/3.Filtered_common_range_data/1.Complete_station_list_edit.xlsx
+++ b/3.Filtered_common_range_data/1.Complete_station_list_edit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Python\code_learning\3.Filtered_common_range_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\OneDrive - stud.tu-darmstadt.de\1. University\3. Third Semester\Scientific Training\code_learning\3.Filtered_common_range_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557EE4B2-1DC0-4B85-86BA-18BFD999F191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1C4DBA-E992-4298-BF36-55CD8CA0F58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-3960" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base_data" sheetId="1" r:id="rId1"/>
@@ -2019,9 +2019,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L318"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L241" sqref="A1:L241"/>
+      <selection pane="topRight" activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7811,7 +7811,7 @@
         <v>16.495550992470911</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>221</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>43.082819986310753</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>221</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>62.751540041067763</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>221</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>28.947296372347711</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>221</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>28.947296372347711</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>221</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>42.91581108829569</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>221</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>52.334017796030118</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>221</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>53.333333333333343</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>221</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>23.419575633127991</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>221</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>35.83025325119781</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>221</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>61.166324435318273</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>221</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>16.585900068446271</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>221</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>22.91581108829569</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>221</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>61.828884325804253</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>221</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>10.757015742642031</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>221</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>221</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>59.419575633127998</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>221</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>221</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>59.586584531143053</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>221</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>58.751540041067763</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>221</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>32.91444216290212</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>221</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>33.913757700205338</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>221</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>34.91581108829569</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>221</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>34.91581108829569</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>221</v>
       </c>
@@ -10129,7 +10129,7 @@
         <v>34.91581108829569</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>221</v>
       </c>
@@ -10205,7 +10205,7 @@
         <v>35.915126625598901</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>221</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>30.91581108829569</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>221</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>35.915126625598901</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -11117,7 +11117,7 @@
         <v>15.83025325119781</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>221</v>
       </c>
@@ -14098,26 +14098,26 @@
         <filter val="Western Europe"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="10">
+    <filterColumn colId="1">
       <filters>
-        <filter val="35.83025325"/>
-        <filter val="35.91512663"/>
-        <filter val="39.91512663"/>
-        <filter val="40.1670089"/>
-        <filter val="40.91444216"/>
-        <filter val="41.16632444"/>
-        <filter val="48.75290897"/>
-        <filter val="51.91512663"/>
-        <filter val="52.82956879"/>
-        <filter val="56"/>
-        <filter val="57.7522245"/>
-        <filter val="58.75154004"/>
-        <filter val="59.58658453"/>
-        <filter val="59.83025325"/>
-        <filter val="61.16632444"/>
-        <filter val="61.66735113"/>
-        <filter val="61.82888433"/>
-        <filter val="62.75154004"/>
+        <filter val="Germany (various sites)"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <dateGroupItem year="1988" dateTimeGrouping="year"/>
+        <dateGroupItem year="1983" dateTimeGrouping="year"/>
+        <dateGroupItem year="1981" dateTimeGrouping="year"/>
+        <dateGroupItem year="1978" dateTimeGrouping="year"/>
+        <dateGroupItem year="1961" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <dateGroupItem year="2014" dateTimeGrouping="year"/>
+        <dateGroupItem year="2013" dateTimeGrouping="year"/>
+        <dateGroupItem year="2012" dateTimeGrouping="year"/>
+        <dateGroupItem year="2011" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -14131,7 +14131,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C18" sqref="C18:C19"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14379,8 +14379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A42D72E-4D33-43BC-9B12-3A26DE90D0B2}">
   <dimension ref="A2:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
